--- a/refs/heads/rc2-umbrella/StructureDefinition-shc-documentreference-qr.xlsx
+++ b/refs/heads/rc2-umbrella/StructureDefinition-shc-documentreference-qr.xlsx
@@ -549,6 +549,9 @@
     <t>Key metadata element describing the the category or classification of the document. This is a broader perspective that groups similar documents based on how they would be used. This is a primary key used in searching.</t>
   </si>
   <si>
+    <t>extensible</t>
+  </si>
+  <si>
     <t>https://who-int.github.io/svc/refs/heads/rc2/ValueSet/SHC-QR-Category-Usage-ValueSet</t>
   </si>
   <si>
@@ -567,7 +570,7 @@
     <t>DocumentReference.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Practitioner|Group|Device)
+    <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/shc-patient)
 </t>
   </si>
   <si>
@@ -667,7 +670,7 @@
     <t>DocumentReference.authenticator</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
+    <t xml:space="preserve">Reference(https://who-int.github.io/svc/refs/heads/rc2/StructureDefinition/shc-organization)
 </t>
   </si>
   <si>
@@ -873,9 +876,6 @@
   </si>
   <si>
     <t>Use of the Health Care Privacy/Security Classification (HCS) system of security-tag use is recommended.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
@@ -3447,7 +3447,7 @@
         <v>55</v>
       </c>
       <c r="F16" t="s" s="2">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="G16" t="s" s="2">
         <v>56</v>
@@ -3494,11 +3494,11 @@
         <v>43</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>43</v>
@@ -3534,13 +3534,13 @@
         <v>43</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>163</v>
@@ -3549,12 +3549,12 @@
         <v>43</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3577,13 +3577,13 @@
         <v>56</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -3634,7 +3634,7 @@
         <v>43</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>44</v>
@@ -3649,34 +3649,34 @@
         <v>67</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
@@ -3695,16 +3695,16 @@
         <v>56</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
@@ -3754,7 +3754,7 @@
         <v>43</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>44</v>
@@ -3769,19 +3769,19 @@
         <v>67</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AO18" t="s" s="2">
         <v>43</v>
@@ -3792,7 +3792,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3815,16 +3815,16 @@
         <v>56</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
@@ -3874,7 +3874,7 @@
         <v>43</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>44</v>
@@ -3889,30 +3889,30 @@
         <v>67</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3920,13 +3920,13 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>43</v>
@@ -3935,16 +3935,16 @@
         <v>43</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3994,7 +3994,7 @@
         <v>43</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>44</v>
@@ -4009,30 +4009,30 @@
         <v>67</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -4055,16 +4055,16 @@
         <v>43</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
@@ -4114,7 +4114,7 @@
         <v>43</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>44</v>
@@ -4129,13 +4129,13 @@
         <v>67</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>43</v>
@@ -4152,7 +4152,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -4175,16 +4175,16 @@
         <v>56</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
@@ -4234,7 +4234,7 @@
         <v>43</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>44</v>
@@ -4252,10 +4252,10 @@
         <v>43</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>43</v>
@@ -4267,12 +4267,12 @@
         <v>43</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -4298,10 +4298,10 @@
         <v>57</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -4352,7 +4352,7 @@
         <v>43</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>44</v>
@@ -4373,7 +4373,7 @@
         <v>43</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM23" t="s" s="2">
         <v>43</v>
@@ -4390,7 +4390,7 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4419,7 +4419,7 @@
         <v>102</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M24" t="s" s="2">
         <v>104</v>
@@ -4472,7 +4472,7 @@
         <v>43</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>44</v>
@@ -4493,7 +4493,7 @@
         <v>43</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>43</v>
@@ -4510,11 +4510,11 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
@@ -4536,10 +4536,10 @@
         <v>101</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M25" t="s" s="2">
         <v>104</v>
@@ -4594,7 +4594,7 @@
         <v>43</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>44</v>
@@ -4632,7 +4632,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4658,13 +4658,13 @@
         <v>75</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
@@ -4693,10 +4693,10 @@
         <v>135</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>43</v>
@@ -4714,7 +4714,7 @@
         <v>43</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>55</v>
@@ -4732,10 +4732,10 @@
         <v>43</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>43</v>
@@ -4747,12 +4747,12 @@
         <v>43</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4775,13 +4775,13 @@
         <v>56</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4832,7 +4832,7 @@
         <v>43</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>55</v>
@@ -4850,10 +4850,10 @@
         <v>43</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>43</v>
@@ -4865,12 +4865,12 @@
         <v>43</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4896,16 +4896,16 @@
         <v>57</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>43</v>
@@ -4954,7 +4954,7 @@
         <v>43</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>44</v>
@@ -4975,7 +4975,7 @@
         <v>43</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AM28" t="s" s="2">
         <v>43</v>
@@ -4984,15 +4984,15 @@
         <v>43</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -5018,16 +5018,16 @@
         <v>153</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="O29" t="s" s="2">
         <v>43</v>
@@ -5052,7 +5052,7 @@
         <v>43</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>276</v>
+        <v>171</v>
       </c>
       <c r="X29" t="s" s="2">
         <v>277</v>
@@ -5076,7 +5076,7 @@
         <v>43</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>44</v>
@@ -5137,7 +5137,7 @@
         <v>56</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K30" t="s" s="2">
         <v>286</v>
@@ -5256,10 +5256,10 @@
         <v>57</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -5310,7 +5310,7 @@
         <v>43</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>44</v>
@@ -5331,7 +5331,7 @@
         <v>43</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>43</v>
@@ -5377,7 +5377,7 @@
         <v>102</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M32" t="s" s="2">
         <v>104</v>
@@ -5430,7 +5430,7 @@
         <v>43</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>44</v>
@@ -5451,7 +5451,7 @@
         <v>43</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>43</v>
@@ -5472,7 +5472,7 @@
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
@@ -5494,10 +5494,10 @@
         <v>101</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M33" t="s" s="2">
         <v>104</v>
@@ -5552,7 +5552,7 @@
         <v>43</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>44</v>
@@ -5706,7 +5706,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
         <v>303</v>
       </c>
@@ -5716,13 +5716,13 @@
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="F35" t="s" s="2">
         <v>55</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>43</v>
@@ -5766,7 +5766,7 @@
         <v>43</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="X35" s="2"/>
       <c r="Y35" t="s" s="2">
@@ -5851,7 +5851,7 @@
         <v>56</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K36" t="s" s="2">
         <v>286</v>
@@ -5972,10 +5972,10 @@
         <v>57</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -6026,7 +6026,7 @@
         <v>43</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>44</v>
@@ -6047,7 +6047,7 @@
         <v>43</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>43</v>
@@ -6093,7 +6093,7 @@
         <v>102</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M38" t="s" s="2">
         <v>104</v>
@@ -6146,7 +6146,7 @@
         <v>43</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>44</v>
@@ -6167,7 +6167,7 @@
         <v>43</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>43</v>
@@ -6188,7 +6188,7 @@
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
@@ -6210,10 +6210,10 @@
         <v>101</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M39" t="s" s="2">
         <v>104</v>
@@ -6268,7 +6268,7 @@
         <v>43</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>44</v>
@@ -6450,10 +6450,10 @@
         <v>57</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -6504,7 +6504,7 @@
         <v>43</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>44</v>
@@ -6525,7 +6525,7 @@
         <v>43</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>43</v>
@@ -6571,7 +6571,7 @@
         <v>102</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M42" t="s" s="2">
         <v>104</v>
@@ -6624,7 +6624,7 @@
         <v>317</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>44</v>
@@ -6645,7 +6645,7 @@
         <v>43</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>43</v>
@@ -7638,7 +7638,7 @@
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s" s="2">
         <v>55</v>
@@ -7775,7 +7775,7 @@
         <v>56</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K52" t="s" s="2">
         <v>286</v>
@@ -7896,10 +7896,10 @@
         <v>57</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7950,7 +7950,7 @@
         <v>43</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>44</v>
@@ -7971,7 +7971,7 @@
         <v>43</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>43</v>
@@ -8017,7 +8017,7 @@
         <v>102</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M54" t="s" s="2">
         <v>104</v>
@@ -8070,7 +8070,7 @@
         <v>43</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>44</v>
@@ -8091,7 +8091,7 @@
         <v>43</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>43</v>
@@ -8112,7 +8112,7 @@
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -8134,10 +8134,10 @@
         <v>101</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M55" t="s" s="2">
         <v>104</v>
@@ -8192,7 +8192,7 @@
         <v>43</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>44</v>
@@ -8374,10 +8374,10 @@
         <v>57</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -8428,7 +8428,7 @@
         <v>43</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>44</v>
@@ -8449,7 +8449,7 @@
         <v>43</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>43</v>
@@ -8495,7 +8495,7 @@
         <v>102</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>104</v>
@@ -8548,7 +8548,7 @@
         <v>317</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>44</v>
@@ -8569,7 +8569,7 @@
         <v>43</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>43</v>
@@ -9562,7 +9562,7 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>55</v>
@@ -9697,7 +9697,7 @@
         <v>56</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="K68" t="s" s="2">
         <v>388</v>
@@ -9820,10 +9820,10 @@
         <v>57</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9874,7 +9874,7 @@
         <v>43</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>44</v>
@@ -9895,7 +9895,7 @@
         <v>43</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>43</v>
@@ -9941,7 +9941,7 @@
         <v>102</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="M70" t="s" s="2">
         <v>104</v>
@@ -9994,7 +9994,7 @@
         <v>43</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>44</v>
@@ -10015,7 +10015,7 @@
         <v>43</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>43</v>
@@ -10036,7 +10036,7 @@
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -10058,10 +10058,10 @@
         <v>101</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M71" t="s" s="2">
         <v>104</v>
@@ -10116,7 +10116,7 @@
         <v>43</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>44</v>
@@ -10848,13 +10848,13 @@
         <v>43</v>
       </c>
       <c r="AK77" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>43</v>
